--- a/data/outputs/数学期刊(下)_altmetric/82.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/82.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE15"/>
+  <dimension ref="A1:CF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1260,6 +1268,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1507,6 +1518,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,6 +1760,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1989,6 +2006,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,6 +2248,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2471,6 +2494,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,6 +2740,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2959,6 +2988,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3206,6 +3238,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3445,6 +3480,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3698,6 +3736,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3956,6 +3997,9 @@
       </c>
       <c r="CE14" t="n">
         <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
@@ -4198,6 +4242,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
